--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smn\Repos\Sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527C59E-4B0E-4AA0-A18C-4935C724E90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5547E677-7394-41A0-B0D7-878215922CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-5595" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54600" yWindow="-5595" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenses" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Cat 1</t>
   </si>
@@ -64,13 +64,19 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Erbe</t>
-  </si>
-  <si>
     <t>Novatec</t>
   </si>
   <si>
     <t>Vodafone</t>
+  </si>
+  <si>
+    <t>gehalt</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -466,7 +473,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -481,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A418038-3858-44F3-9037-808E24BD9285}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -522,14 +529,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>90</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smn\Repos\Sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5547E677-7394-41A0-B0D7-878215922CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09222E7-6372-4F6A-BEF6-F2FFF1EB40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-5595" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54600" yWindow="-5595" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenses" sheetId="1" r:id="rId1"/>
@@ -28,21 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
-    <t>Cat 1</t>
-  </si>
-  <si>
-    <t>cat 2</t>
-  </si>
-  <si>
-    <t>cat 3</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -77,14 +62,37 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>Kategorie 1</t>
+  </si>
+  <si>
+    <t>Kategorie 2</t>
+  </si>
+  <si>
+    <t>Kategorie 3</t>
+  </si>
+  <si>
+    <t>Januar</t>
+  </si>
+  <si>
+    <t>Februar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,31 +416,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -442,13 +451,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -456,13 +465,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -473,7 +482,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -488,41 +497,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A418038-3858-44F3-9037-808E24BD9285}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -530,10 +539,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>90</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smn\Repos\Sankey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09222E7-6372-4F6A-BEF6-F2FFF1EB40CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F81AC-AC61-41F2-867F-91D48DFB0170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-5595" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41700" yWindow="-2730" windowWidth="38700" windowHeight="15375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expenses" sheetId="1" r:id="rId1"/>
     <sheet name="income" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Auto</t>
   </si>
@@ -77,6 +88,9 @@
   </si>
   <si>
     <t>Februar</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -403,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +429,7 @@
     <col min="3" max="3" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -431,8 +445,11 @@
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,8 +465,12 @@
       <c r="E2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>AVERAGE(D2:E2)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -462,8 +483,12 @@
       <c r="D3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(D3:E3)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -479,12 +504,20 @@
       <c r="E4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -495,15 +528,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A418038-3858-44F3-9037-808E24BD9285}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -519,8 +552,11 @@
       <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -536,8 +572,12 @@
       <c r="E2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>AVERAGE(D2:E2)</f>
+        <v>75.150000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -549,6 +589,10 @@
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(D3:E3)</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
